--- a/291-erreur-organization-lieu-dit-precinct/ig/StructureDefinition-ror-location.xlsx
+++ b/291-erreur-organization-lieu-dit-precinct/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T13:56:57+00:00</t>
+    <t>2024-02-06T14:47:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1874,7 +1874,7 @@
     <t>lieuDit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/as-ext-lieu-dit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-lieu-dit}
 </t>
   </si>
   <si>
